--- a/va_facility_data_2025-02-20/Greenwood VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Greenwood%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Greenwood VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Greenwood%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re3588a1d3c934234afe3e2c22c9920e6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R38a9d44ee7da4c5c994884b2edb78ca4"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc0d44bb5aa3d4a6697d0e5124db70b70"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R60b0ee5a8d104fd5aed65ce2732670ff"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rabcafa6933cb489d9ade5f68101f30c2"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6a32bdae16d04593a94c60a617de1722"/>
   </x:sheets>
 </x:workbook>
 </file>
